--- a/fhir/indisa/StructureDefinition-IdExpeditionPlace.xlsx
+++ b/fhir/indisa/StructureDefinition-IdExpeditionPlace.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="152">
   <si>
     <t>Path</t>
   </si>
@@ -140,7 +140,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Lugar expedicion identificacion paciente</t>
+    <t>Place of issuance of patient identification</t>
+  </si>
+  <si>
+    <t>Place of issuance of patient identification.</t>
   </si>
   <si>
     <t>*</t>
@@ -212,7 +215,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>https://digitalware-klinic.github.io/fhir/indisa/StructureDefinition/IdExpeditionPlace</t>
+    <t>https://digitalware-klinic.github.io/fhir/indisa/StructureDefinition-IdExpeditionPlace</t>
   </si>
   <si>
     <t>N/A</t>
@@ -643,42 +646,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="46.0234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.39453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="39.66015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.51171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="19.28515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="38.5234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="44.3671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.84765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="30.98828125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.5703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -822,7 +825,7 @@
         <v>41</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -879,13 +882,13 @@
         <v>38</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>37</v>
@@ -893,7 +896,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -916,13 +919,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -973,7 +976,7 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
@@ -988,12 +991,12 @@
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1016,13 +1019,13 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1061,31 +1064,31 @@
         <v>37</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>37</v>
@@ -1093,7 +1096,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1116,16 +1119,16 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1133,7 +1136,7 @@
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R5" t="s" s="2">
         <v>37</v>
@@ -1175,7 +1178,7 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>39</v>
@@ -1190,12 +1193,12 @@
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1218,13 +1221,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1275,7 +1278,7 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
@@ -1287,15 +1290,15 @@
         <v>37</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1318,13 +1321,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1375,7 +1378,7 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>38</v>
@@ -1390,23 +1393,23 @@
         <v>37</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -1418,16 +1421,16 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1465,39 +1468,39 @@
         <v>37</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1520,32 +1523,32 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s" s="2">
         <v>37</v>
@@ -1557,13 +1560,13 @@
         <v>37</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>37</v>
@@ -1581,7 +1584,7 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
@@ -1593,15 +1596,15 @@
         <v>37</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1624,16 +1627,16 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -1647,7 +1650,7 @@
         <v>37</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T10" t="s" s="2">
         <v>37</v>
@@ -1659,13 +1662,13 @@
         <v>37</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>37</v>
@@ -1683,7 +1686,7 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
@@ -1695,15 +1698,15 @@
         <v>37</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1726,19 +1729,19 @@
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>37</v>
@@ -1751,7 +1754,7 @@
         <v>37</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>37</v>
@@ -1787,7 +1790,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1799,15 +1802,15 @@
         <v>37</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1830,13 +1833,13 @@
         <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1851,7 +1854,7 @@
         <v>37</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>37</v>
@@ -1887,31 +1890,31 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -1930,13 +1933,13 @@
         <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1951,7 +1954,7 @@
         <v>37</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="T13" t="s" s="2">
         <v>37</v>
@@ -1987,7 +1990,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -1999,19 +2002,19 @@
         <v>37</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2030,16 +2033,16 @@
         <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2053,7 +2056,7 @@
         <v>37</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>37</v>
@@ -2089,7 +2092,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -2101,19 +2104,19 @@
         <v>37</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2132,13 +2135,13 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2189,7 +2192,7 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
@@ -2201,19 +2204,19 @@
         <v>37</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2232,13 +2235,13 @@
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2253,7 +2256,7 @@
         <v>37</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>37</v>
@@ -2289,7 +2292,7 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
@@ -2301,15 +2304,15 @@
         <v>37</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2332,16 +2335,16 @@
         <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2391,7 +2394,7 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
@@ -2403,15 +2406,15 @@
         <v>37</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2434,17 +2437,17 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>37</v>
@@ -2457,7 +2460,7 @@
         <v>37</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>37</v>
@@ -2493,7 +2496,7 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
@@ -2505,10 +2508,10 @@
         <v>37</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/indisa/StructureDefinition-IdExpeditionPlace.xlsx
+++ b/fhir/indisa/StructureDefinition-IdExpeditionPlace.xlsx
@@ -646,42 +646,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.39453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="46.0234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="38.5234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="44.3671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.84765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="39.66015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="19.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.5703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="30.98828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
